--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value675.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value675.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.647678099232822</v>
+        <v>1.581554651260376</v>
       </c>
       <c r="B1">
-        <v>1.982862928910062</v>
+        <v>1.954456090927124</v>
       </c>
       <c r="C1">
-        <v>2.667796559477776</v>
+        <v>2.18241810798645</v>
       </c>
       <c r="D1">
-        <v>2.666299814915025</v>
+        <v>2.413662672042847</v>
       </c>
       <c r="E1">
-        <v>0.6904302128782538</v>
+        <v>3.079207897186279</v>
       </c>
     </row>
   </sheetData>
